--- a/biology/Zoologie/Ambystoma_altamirani/Ambystoma_altamirani.xlsx
+++ b/biology/Zoologie/Ambystoma_altamirani/Ambystoma_altamirani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ambystoma altamirani est une espèce d'urodèles de la famille des Ambystomatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambystoma altamirani est une espèce d'urodèles de la famille des Ambystomatidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du centre du Mexique. Elle se rencontre dans les États de Morelos, de Mexico et dans le District fédéral entre 2 700 et 3 200 m d'altitude[1].
-Elle vit et se reproduit dans les cours d'eau permanents parcourant les forêts de pins et les forêts de pins et chênes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du centre du Mexique. Elle se rencontre dans les États de Morelos, de Mexico et dans le District fédéral entre 2 700 et 3 200 m d'altitude.
+Elle vit et se reproduit dans les cours d'eau permanents parcourant les forêts de pins et les forêts de pins et chênes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Fernando Altamirano.
 </t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dugès, 1895 : Description d'un Axolotl des Montagnes de las Cruces (Amblystoma Altamirani, A. Dugès). México, Institut Médico-Nacional, Imprimèrie du Ministère de Fomento.</t>
         </is>
